--- a/Notams.xlsx
+++ b/Notams.xlsx
@@ -19,12 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="151">
   <si>
     <t>Data Set: notam_decode</t>
   </si>
   <si>
-    <t>Generated on April 19th 2016 at 2:07:07pm by peri287</t>
+    <t>Generated on April 23rd 2016 at 1:37:25pm by peri287</t>
   </si>
   <si>
     <t>Input</t>
@@ -93,93 +93,114 @@
     <t>notam_decode</t>
   </si>
   <si>
-    <t>C1038/16</t>
-  </si>
-  <si>
-    <t>Q) EGTT/QMRXX/IV/NBO/A/000/999/5250N00120W005</t>
-  </si>
-  <si>
-    <t>5250N00120W</t>
-  </si>
-  <si>
-    <t>5250N00120W005</t>
+    <t>B2758/15</t>
+  </si>
+  <si>
+    <t>PERM</t>
+  </si>
+  <si>
+    <t>Q) LFFF/QOBCE/IV/M/AE/000/009/5033N00140E005</t>
+  </si>
+  <si>
+    <t>5033N00140E</t>
+  </si>
+  <si>
+    <t>5033N00140E005</t>
   </si>
   <si>
     <t>IV</t>
   </si>
   <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>E) 3 WIND TURBINES AT FRENCQ RDL036/3.02NM LFAT ARP: PSN: 503319N 0014027E HEIGHT: 377FT ELEVATION: 820FT DAY AND NIGHT LIGHTED</t>
+  </si>
+  <si>
+    <t>B2133/15</t>
+  </si>
+  <si>
+    <t>Q) LFFF/QOBCE/IV/M/AE/000/002/5031N00135E005</t>
+  </si>
+  <si>
+    <t>5031N00135E</t>
+  </si>
+  <si>
+    <t>5031N00135E005</t>
+  </si>
+  <si>
+    <t>E) CRANE OPR AT LE TOUQUET RDL 283/1.79NM FROM ARP: PSN: 503117N 0013454E HEIGHT 133FT ELEVATION 164FT LIGHTED NIGHT AND DAY</t>
+  </si>
+  <si>
+    <t>B0552/16</t>
+  </si>
+  <si>
+    <t>Q) LFFF/QPLCH/IV/NBO/A/000/999/5031N00138E005</t>
+  </si>
+  <si>
+    <t>5031N00138E</t>
+  </si>
+  <si>
+    <t>5031N00138E005</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>E) DUE TO WORK IN PROGRESS ON RWY 09/27 THE FOLLOWING LEAD ON/OFF LIGHTS FOR RWY 09/27 INTERSECTIONS HAVE BEEN REMOVED: HOTEL - 09 LEAD ONS/27 LEAD OFFS, MIKE - 09 LEAD OFFS/27 LEAD ONS, SIERRA - 09/27 LEAD ONS AND LEAD OFFS, WHISKEY - 09 LEAD ONS/27 LEAD OFFS. BLUE EDGE LIGHTING REMAINS SERVICEABLE AT ALL OF THE ABOVE.</t>
-  </si>
-  <si>
-    <t>C1539/16</t>
-  </si>
-  <si>
-    <t>Q) EGTT/QOBCE/IV/M/AE/000/005/5250N00121W001</t>
-  </si>
-  <si>
-    <t>5250N00121W</t>
-  </si>
-  <si>
-    <t>5250N00121W001</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
-    <t>E) CRANES OPERATING TO THE WEST OF THE DHL BUILDING PSN 524934N 0012106W EAST MIDLANDS AD MAX HT 126FT AGL/432FT AMSL</t>
-  </si>
-  <si>
-    <t>K0053/16</t>
-  </si>
-  <si>
-    <t>Q) EGTT/QOBCE/IV/M/AE/000/005/5249N00110W001</t>
-  </si>
-  <si>
-    <t>5249N00110W</t>
-  </si>
-  <si>
-    <t>5249N00110W001</t>
-  </si>
-  <si>
-    <t>E) NEST OF CRANES IN LOW FLYING AREA 8, THE DERBY / NOTTINGHAM AVIODANCE AREA AND NIGHT SECTOR 5F WI 1NM RADIUS OF PSN 524835N 0011021W (STANFORD HALL, LEICESTERSHIRE) MAX HEIGHT 185FT AGL/450FT AMSL. 16/03/009/OPSLF</t>
-  </si>
-  <si>
-    <t>C0988/16</t>
-  </si>
-  <si>
-    <t>Q) EGTT/QSPLT/IV/BO/AE/000/105/5248N00115W028</t>
-  </si>
-  <si>
-    <t>5248N00115W</t>
-  </si>
-  <si>
-    <t>5248N00115W028</t>
-  </si>
-  <si>
-    <t>E) SRA PROCEDURE WITHDRAWN WITH IMMEDIATE EFFECT</t>
+    <t>E) FPL DEPOSIT IN DEPARTURE OF LE TOUQUET, USE ONLY INTERNET WAY. FAX TRANSMITTED FPL WILL NOT BE PROCESSED.</t>
+  </si>
+  <si>
+    <t>B1805/16</t>
+  </si>
+  <si>
+    <t>Q) LFFF/QFFAH/IV/NBO/A/000/999/5031N00138E005</t>
+  </si>
+  <si>
+    <t>E) FIRE AND RESCUE SERVICE HOURS OF OPS : LEVEL 2 : 0700-0900 1500-1800 LEVEL 4 : 0900-1500 EXC : MAR 27-28 APR 11-16 25-26 : LEVEL 2 DURING ATS HOURS. LEVEL 5 POSSIBLE : PPR 24HR TO MANAGING AUTHORITY. TEL +33 (0)321 050 399 FAX +33 (0)321 055 934 LEVEL 1 OUTSIDE ATS HOURS OF OPS.</t>
+  </si>
+  <si>
+    <t>B2059/16</t>
+  </si>
+  <si>
+    <t>Q) LFFF/QPMCH/IV/NBO/A/000/999/5031N00138E005</t>
+  </si>
+  <si>
+    <t>E) TKOF RWY 13/31 MINIMA CHANGED : -BY DAY, WITH OR WITHOUT ATS: FOR CAT A, CAT B, CAT C : RVR HIGHER OR EQUAL TO 550M -BY NIGHT, WITH OR WITHOUT ATS : FOR CAT A, CAT B, CAT C : RVR HIGHER OR EQUAL TO 800M</t>
+  </si>
+  <si>
+    <t>B2151/16</t>
+  </si>
+  <si>
+    <t>Q) LFFF/QFULT/IV/NBO/A/000/999/5031N00138E005</t>
+  </si>
+  <si>
+    <t>E) REFUELLING AVGAS 100LL NOT AVAILABLE AT THE STATION 'TOTAL': REFUELLING AVAILBLE BY FUEL TRUCK.</t>
+  </si>
+  <si>
+    <t>B0036/16</t>
+  </si>
+  <si>
+    <t>Q) EGXX/QCSXX/I/B/E/000/999/5504N00500W999</t>
+  </si>
+  <si>
+    <t>5504N00500W</t>
+  </si>
+  <si>
+    <t>5504N00500W999</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>E) CHANGE OF SSR CODES ALLOCATED TO DISTRESS AND DIVERSION CELL REPLACE 3301-3304 SWANWICK (MILITARY) SPECIAL TASKS 3305-3307 AIRCRAFT RECEIVING A SERVICE FROM LONDON DISTRESS AND DIVERSION CELL WITH 3301-3303 SWANWICK (MILITARY) SPECIAL TASKS 3304-3306 AIRCRAFT RECEIVING A SERVICE FROM LONDON DISTRESS AND DIVERSION CELL 3307 DISTRESS AND DIVERSION CELL CONSPICUITY TRAINING FIX UK AIP ENR 1.6 REFERS</t>
   </si>
   <si>
     <t>B0538/16</t>
   </si>
   <si>
-    <t>Q) EGXX/QCSXX/I/B/E/000/999/5504N00500W999</t>
-  </si>
-  <si>
-    <t>5504N00500W</t>
-  </si>
-  <si>
-    <t>5504N00500W999</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>E) SSR MODE 3/A CODES 1600 TO 1677 TEMPO ALLOCATED TO EXER GRIFFIN STRIKE 16, SFC-UNL. OPS CTC 01436 674321 EXTENSION 4409. 16-04-0041/AS4.</t>
   </si>
   <si>
@@ -189,21 +210,9 @@
     <t>E) SSR MODE 3/A CODES 1501 TO 1537, 2400 TO 2477, AND 1700 TO 1727 TEMPO ALLOCATED TO EXER JOINT WARRIOR 161. OPS CTC 01436 674321 EXTENSION 4409. 16-04-0042/AS4.</t>
   </si>
   <si>
-    <t>B0586/16</t>
-  </si>
-  <si>
-    <t>Q) EGXX/QSEXX/IV/B/E/000/999/5504N00500W999</t>
-  </si>
-  <si>
-    <t>E) SWANWICK MIL IS SUPPORTING 3 MAJOR EXERCISES, SFC/UNL AND WILL BE OPERATING AT CAPACITY IN THE EAST, NORTH EAST AND NORTH SECTORS. ATS PROVISION TO BOTH MILITARY AND CIVILIAN AIRCRAFT NOT INVOLVED IN THESE EXERCISES MAY BE REDUCED, OR REFUSED SUBJECT TO WORKLOAD IN ACCORDANCE WITH RAF ATM ORDERS.</t>
-  </si>
-  <si>
     <t>B0434/16</t>
   </si>
   <si>
-    <t>PERM</t>
-  </si>
-  <si>
     <t>Q) EGTT/QAFXX/IV/NBO/E/000/999/5248N00149W999</t>
   </si>
   <si>
@@ -246,6 +255,15 @@
     <t>E) ON THE 25 JAN 16 THE UK AIS WILL RELOCATE TO SWANWICK. ALL AGENCIES TO AMEND POSTAL AND CONTACTS AS FOLLOWS. NOTE EXISTING CONTACT NUMBERS REMAIN IN FORCE UNTIL 25 JAN 16 POST: AERONAUTICAL INFORMATION SERVICE (AIS) NATS SWANWICK ROOM 3115 SOPWITH WAY SOUTHAMPTON HANTS SO31 7AY UK AIP GEN 0.1 / GEN 3.1 / GEN 3.2 / ENR CHART 6-1-4-2 REFER TELEPHONE NUMBERS: UK NOTAM OFFICE 01489 612488 / 01489 612489 UK NOTAM OFFICE 07769 672014 (CONTINGENCY MOBILE) FAX (AIS/NOTAM) 01489 612490 UK AIS INFO LINE 0500 354802 / 01489 887515 UK AIS PUBLICATIONS 01489 887462 UK CHARTING SECTION 01489 887463 FOREIGN AIP LIBRARY 01489 887462 UK AIP GEN 3.1 / GEN 3.2 REFER EMAIL: AISSUPERVISOR(AT)NATS.CO.UK (GENERAL AIS ENQUIRIES) EG(UNDERSCORE)NOTAMPROP(AT)EAD.EUROCONTROL.INT (NOTAM PROPOSALS) UK AIP GEN 0.1 / GEN 3.1 / GEN 3.2 REFER</t>
   </si>
   <si>
+    <t>B0239/16</t>
+  </si>
+  <si>
+    <t>Q) EGXX/QAFTT/IV/BO/E/000/999/5218N01451W999</t>
+  </si>
+  <si>
+    <t>E) TRIGGER NOTAM - PERM AIRAC AIP AMDT 04/16 WEF 31 MAR 16, MULTIPLE CHANGES, SEE COVER SHEET FOR FULL DETAILS</t>
+  </si>
+  <si>
     <t>B0310/16</t>
   </si>
   <si>
@@ -258,21 +276,6 @@
     <t>E) AMEND AIC M018/2016. RESTRICTION OF FLYING REGULATIONS - HYLANDS PARK, ESSEX - 19-22 AUGUST 2016 AMEND PARAGRAPH 1A TO READ BETWEEN 0700 ON 19 AUGUST 2016 AND 1300 HOURS ON 22 AUGUST 2016. 2016-08-0008/AS6</t>
   </si>
   <si>
-    <t>L1313/16</t>
-  </si>
-  <si>
-    <t>Q) EGTT/QAZCA/IV/NBO/AE/000/022/5205N00019W002</t>
-  </si>
-  <si>
-    <t>5205N00019W</t>
-  </si>
-  <si>
-    <t>5205N00019W002</t>
-  </si>
-  <si>
-    <t>E) OLD WARDEN ATZ ACTIVE. AFIS OPERATIONAL ON 130.700 DURING ATZ HOURS.</t>
-  </si>
-  <si>
     <t>B0279/16</t>
   </si>
   <si>
@@ -303,6 +306,36 @@
     <t>E) CHART FREQUENCIES TO READ: APP 132.700 THAMES DIRECTOR TWR 118.075, 129.450 CITY TOWER RAD 133.450, 128.025 THAMES DIRECTOR ATIS 136.350 CITY INFORMATION UK AIP AD 2-EGLC-8-5 REFERS</t>
   </si>
   <si>
+    <t>C0210/16</t>
+  </si>
+  <si>
+    <t>Q) EGTT/QOBCE/IV/M/AE/000/003/5130N00004E005</t>
+  </si>
+  <si>
+    <t>5130N00004E</t>
+  </si>
+  <si>
+    <t>5130N00004E005</t>
+  </si>
+  <si>
+    <t>E) CONSTRUCTION SITE CRANE /LIT MAX HGT 269FT AGL/285FT AMSL OPR PSN 512940N 0000403E WOOLWICH RIVERSIDE TC1. CTC AIRFIELD DUTY MGR +44 2076460241</t>
+  </si>
+  <si>
+    <t>L1942/16</t>
+  </si>
+  <si>
+    <t>Q) EGTT/QOBCE/IV/M/AE/000/006/5121N00031E001</t>
+  </si>
+  <si>
+    <t>5121N00031E</t>
+  </si>
+  <si>
+    <t>5121N00031E001</t>
+  </si>
+  <si>
+    <t>E) PILING RIG OPR 512118N 0003032E (ROCHESTER AD). APRX 50M EAST OF AD BOUNDARY. MAX HGT 93FT AGL, 528FT AMSL</t>
+  </si>
+  <si>
     <t>B0167/16</t>
   </si>
   <si>
@@ -318,7 +351,100 @@
     <t>E) FARNBOROUGH RADAR AND TOWER MAY BE PROVIDED AS A COMBINED SERVICE WITH COUPLED FREQUENCIES. AIRCRAFT FOR FARNBOROUGH LOWER AIRSPACE RADAR SERVICE SHOULD CONTACT FARNBOROUGH ON 125.250 MHZ.</t>
   </si>
   <si>
-    <t>H1695/16</t>
+    <t>P0634/15</t>
+  </si>
+  <si>
+    <t>Q) LFFF/QOBCE/IV/M/E/000/006/5022N00143E005</t>
+  </si>
+  <si>
+    <t>5022N00143E</t>
+  </si>
+  <si>
+    <t>5022N00143E005</t>
+  </si>
+  <si>
+    <t>E) OBSTACLE: 10 WIND TURBINES OPR AT TIGNY NOYELLE (62) RDL 128/5,76NM ARP LFAM (BERCK SUR MER) PSN: 502153N 0014239E HEIGHT: 397FT ELEV: 544FT LIGHTING: NIL</t>
+  </si>
+  <si>
+    <t>F0514/16</t>
+  </si>
+  <si>
+    <t>Q) LFFF/QNVAS/IV/BO/AE/000/999/5008N00151E025</t>
+  </si>
+  <si>
+    <t>5008N00151E</t>
+  </si>
+  <si>
+    <t>5008N00151E025</t>
+  </si>
+  <si>
+    <t>E) VOR/DME ABB 108.450MHZ VOR PART U/S : DO NOT USE, POSSIBLE FALSE INDICATIONS</t>
+  </si>
+  <si>
+    <t>A1108/16</t>
+  </si>
+  <si>
+    <t>Q) LFFF/QACXX/V/NBO/AE/000/195/4904N00232E106</t>
+  </si>
+  <si>
+    <t>4904N00232E</t>
+  </si>
+  <si>
+    <t>4904N00232E106</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>E) CONTRARY TO THE INSTRUCTIONS PUBLISHED ON NOVEMBER 13TH 2014 ON PAGES AIP AD 2 LFPG TXT 02 AND AD 3 LFPG TXT 02, AND EXCEPTING PUBLIC MISSION FLIGHTS OF SERA ARTICLE 4, VFR USERS ALLOWED TO FLY IN PARIS CTR AND IN LF-R275 AREA,MUST COMPLY WITH THE FOLLOWING MEASURES. - ALL VFR AIRCRAFT (AIRPLANES AND HELICOPTERS) ARRIVING TO OR DEPARTING FROM PARIS CHARLES DE GAULLE (USING CDG RUNWAYS OR HELISTOP) ARE TEMPORARILY FORBIDDEN IN SPECIAL VFR CONDITIONS. THESE VFR FLIGHTS ARE ALLOWED ONLY IN VMC CONDITIONS WITHIN CLASS D AIRSPACE. - EVERY REQUEST FOR AIR WORK IN VFR (AIRPLANE OR HELICOPTER), WHOSE TRAJECTORY IS LIKELY TO INTERFERE WITH IFR PROCEDURES AT PARIS CHARLES DE GAULLE AND/OR PARIS LE BOURGET, WILL BE POTENTIALLY REFUSED IN SPECIAL VFR CONDITIONS IN PARIS CTR</t>
+  </si>
+  <si>
+    <t>A1109/16</t>
+  </si>
+  <si>
+    <t>E) CONTRARY TO THE INSTRUCTIONS PUBLISHED ON NOVEMBER 13TH 2014 ON PAGES AIP AD 2 LFPG TXT 02 AND AD 3 LFPG TXT 02, VFR USERS ALLOWED TO FLY IN PARIS CTR AND IN LF-R275 AREA, MUST COMPLY WITH THE FOLLOWING PROVISIONS : IN ANY MET CONDITIONS, NO VISUAL SEPARATION CLEARANCE IS TEMPORARILY APPLICABLE BETWEEN IFR FLIGHTS AND A VFR FLYING SOUTH OF RH1 POINT AND NORTH OF RH2 POINT.</t>
+  </si>
+  <si>
+    <t>F0263/16</t>
+  </si>
+  <si>
+    <t>Q) LFXX/QAXTT/IV/BO/E/000/999/4720N00210W250</t>
+  </si>
+  <si>
+    <t>4720N00210W</t>
+  </si>
+  <si>
+    <t>4720N00210W250</t>
+  </si>
+  <si>
+    <t>E) TRIGGER NOTAM - PERM AIRAC AIP AMDT 04/16: CREATION SIGNIFICANT POINTS EBOMO OTGUV ELTEG IBRIG OLMOL ERPOM. SIGNIFICANT POINT BERAD CHANGED</t>
+  </si>
+  <si>
+    <t>F0535/16</t>
+  </si>
+  <si>
+    <t>Q) LFXX/QAFXX/IV/NBO/E/000/999/4504N00053E999</t>
+  </si>
+  <si>
+    <t>4504N00053E</t>
+  </si>
+  <si>
+    <t>4504N00053E999</t>
+  </si>
+  <si>
+    <t>E) ACCORDING TO FRENCH DEPARTMENT OF THE INTERIOR INSTRUCTIONS, AND PURSUANT TO : - ICAO ANNEX 9 STANDARD 3.33, - ARTICLE 26 OF SCHENGEN CONVENTION (1985, JUNE 14TH) - ARTICLE L.625.1 OF 'CODE DE L'ENTREE ET DU SEJOUR DES ETRANGERS ET DU DROIT D'ASILE' CESEDA (FRENCH CODE ABOUT FOREIGNERS ENTRY CONDITIONS AND RIGHT OF ASYLUM), IT IS COMPULSORY FOR AIRLINE CARRIERS SERVING METROPOLITAN FRANCE TO VERIFY EVERY PASSENGER TRAVEL DOCUMENT FOR EVERY INBOUND FLIGHT TO METROPOLITAN FRANCE, COMING FROM INSIDE/OUTSIDE THE SCHENGEN AREA DURING THE FLW PERIOD : 2016, FM 28TH MARCH TO 27TH APRIL. FAILURE TO COMPLY COULD LEAD TO PAY A MAXIMUM 5000 EUROS FINE PER PASSENGER IN ADDITION TO PAYMENT OF THE COSTS OF REMOVAL OF EACH INADMISSABLE TRAVELLER</t>
+  </si>
+  <si>
+    <t>F0620/16</t>
+  </si>
+  <si>
+    <t>Q) LFXX/QCDXX/I/BO/E/000/999/4504N00053E999</t>
+  </si>
+  <si>
+    <t>E) LAUNCH OF THE OPERATIONAL 'IOC' TRIAL (INITIAL OPERATING CAPABILITIES) CPDLC SERVICES IN THE FRENCH CONTINENTAL AIRSPACE FOR WHICH PARIS, REIMS AND MARSEILLE ACC PROVIDE AIR TRAFFIC SERVICES. CURRENTLY, 'IOC' CPDLC IS OPERATIONAL INSIDE THE AIRSPACE FOR WHICH BREST AND BORDEAUX ACC PROVIDE AIR TRAFFIC SERVICES. 'IOC' CPDLC SERVICES WILL BE PROVIDED IN ALL FRENCH CONTINENTAL AIRSPACE. SEE FRENCH AIC 09/16.</t>
+  </si>
+  <si>
+    <t>H1472/16</t>
   </si>
   <si>
     <t>Q) EGXX/QWYLW/IV/M/W/000/065/5504N00500W999</t>
@@ -330,7 +456,7 @@
     <t>W</t>
   </si>
   <si>
-    <t>E) PIPELINE INSPECTION NOTIFICATION PROCEDURE SYSTEM (PINS) WILL TAKE PLACE IN THE FOLLOWING LOW FLYING AREAS 2, 4, 7N, 7S, 8, 9, 11N, 11S, 12, 19. 16/04/033/LFBC</t>
+    <t>E) PIPELINE INSPECTION NOTIFICATION PROCEDURE SYSTEM (PINS) WILL TAKE PLACE IN THE FOLLOWING LOW FLYING AREAS 1, 4, 5, 6, 7N, 8, 9, 11N, 11S, 12, 14E, 16, THAMES VALLEY AVOIDANCE AREA 16/04/010/LFBC</t>
   </si>
   <si>
     <t>V0017/16</t>
@@ -346,51 +472,6 @@
   </si>
   <si>
     <t>E) AIRSPACE SECURITY WARNINGS ISSUED BY THE DEPARTMENT FOR TRANSPORT IN RESPONSE TO HAZARDOUS SITUATIONS WITHIN THE TERRITORY AND/OR AIRSPACE OF AFGHANISTAN, EGYPT, IRAQ, LIBYA, PAKISTAN, SOMALIA, SOUTH SUDAN, SYRIA, UKRAINE AND YEMEN. ALL OPERATORS ARE TO REFER TO THE TABLE IN UK AIP AT ENR 1.1 SECTION 1.4 FOR FURTHER DETAILS. 15-08-0100/AS6.</t>
-  </si>
-  <si>
-    <t>H0172/16</t>
-  </si>
-  <si>
-    <t>Q) EGTT/QWALW/IV/M/AW/000/034/5205N00019W003</t>
-  </si>
-  <si>
-    <t>5205N00019W003</t>
-  </si>
-  <si>
-    <t>AW</t>
-  </si>
-  <si>
-    <t>E) AIR DISPLAY/AEROBATICS INCLUDING GLIDING. WI 3NM RADIUS 520512N 0001907W (OLD WARDEN AD). FOR INFO 07875 028876. 16-04-0003/AS3</t>
-  </si>
-  <si>
-    <t>H0362/16</t>
-  </si>
-  <si>
-    <t>Q) EGTT/QWCLW/IV/M/W/000/005/5159N00011W001</t>
-  </si>
-  <si>
-    <t>5159N00011W</t>
-  </si>
-  <si>
-    <t>5159N00011W001</t>
-  </si>
-  <si>
-    <t>E) UNMANNED CAPTIVE BALLOON IN LOW FLYING AREA 6 WI 1NM RADIUS OF PSN 515853N 0001108W (BALDOCK, HERTFORDSHIRE) MAX HEIGHT 200FT AGL. 16/01/049/OPSLF</t>
-  </si>
-  <si>
-    <t>H1700/16</t>
-  </si>
-  <si>
-    <t>Q) EGTT/QWTLW/IV/M/W/000/024/5141N00002W011</t>
-  </si>
-  <si>
-    <t>5141N00002W</t>
-  </si>
-  <si>
-    <t>5141N00002W011</t>
-  </si>
-  <si>
-    <t>E) FORMATION OF UP TO 7 MIXED-TYPE HELI OPR AREA BOUNDED BY STRAIGHT LINES JOINING THE FOLLOWING POINTS 514508N 0001309E - 514055N 0000652E AND 513232N 0000055W, THEN THE ANTI-CLOCKWISE ARC OF A CIRCLE HAVING A RADIUS OF 17 NAUTICAL MILES CENTRED ON 512812N 0002713W FROM 513232N 0000055W TO 513611N 0000311W AND STRAIGHT LINES JOINING THE FOLLOWING POINTS 513611N 0000311W - 513611N 0001830W - 515101N 0000025W - 515146N 0000006W AND 515155N 0000120E AND THE ANTI-CLOCKWISE ARC OF A CIRCLE HAVING A RADIUS OF RADIUS 8 NAUTICAL MILES CENTRED ON 515306N 0001406E FROM 515155N 0000120E TO 514508N 0001309E. AUS. 16-04-0333.</t>
   </si>
 </sst>
 </file>
@@ -867,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:T1"/>
@@ -1002,7 +1083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="96">
+    <row r="4" spans="1:20" ht="36">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1028,36 +1109,36 @@
         <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>38792.25</v>
-      </c>
-      <c r="J4" s="7">
-        <v>38884.25</v>
+        <v>37422.550694444442</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R4" s="5">
         <v>0</v>
       </c>
       <c r="S4" s="5">
-        <v>999</v>
+        <v>9</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="36">
@@ -1083,42 +1164,42 @@
         <v>22</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="7">
-        <v>36997.291666666664</v>
+        <v>46858.517361111109</v>
       </c>
       <c r="J5" s="7">
-        <v>11125.791666666666</v>
+        <v>37027.999305555553</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R5" s="5">
         <v>0</v>
       </c>
       <c r="S5" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="72">
+    <row r="6" spans="1:20" ht="36">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1144,10 +1225,10 @@
         <v>37</v>
       </c>
       <c r="I6" s="7">
-        <v>39888.325694444444</v>
+        <v>47134.388888888891</v>
       </c>
       <c r="J6" s="7">
-        <v>37058.999305555553</v>
+        <v>11520.999305555555</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>38</v>
@@ -1161,22 +1242,22 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R6" s="5">
         <v>0</v>
       </c>
       <c r="S6" s="5">
-        <v>5</v>
+        <v>999</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="24">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="84">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1199,42 +1280,42 @@
         <v>22</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>37331.298611111109</v>
+        <v>46462.291666666664</v>
       </c>
       <c r="J7" s="7">
-        <v>37423.298611111109</v>
+        <v>11064.999305555555</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R7" s="5">
         <v>0</v>
       </c>
       <c r="S7" s="5">
-        <v>105</v>
+        <v>999</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="60">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1257,30 +1338,30 @@
         <v>22</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="7">
+        <v>38458.672222222223</v>
+      </c>
+      <c r="J8" s="7">
+        <v>11125.999305555555</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="7">
-        <v>40284.959027777775</v>
-      </c>
-      <c r="J8" s="7">
-        <v>44667.957638888889</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="L8" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="R8" s="5">
         <v>0</v>
@@ -1289,10 +1370,10 @@
         <v>999</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="36">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1315,30 +1396,30 @@
         <v>22</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I9" s="7">
-        <v>40284.959027777775</v>
+        <v>39919.4375</v>
       </c>
       <c r="J9" s="7">
-        <v>44667.957638888889</v>
+        <v>40649.458333333336</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="R9" s="5">
         <v>0</v>
@@ -1347,10 +1428,10 @@
         <v>999</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="96">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="120">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1373,30 +1454,30 @@
         <v>22</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>43206.333333333336</v>
-      </c>
-      <c r="J10" s="7">
-        <v>44667.708333333336</v>
+        <v>39098.638194444444</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R10" s="5">
         <v>0</v>
@@ -1408,7 +1489,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" ht="48">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1431,22 +1512,42 @@
         <v>22</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="I11" s="7">
+        <v>40284.959027777775</v>
+      </c>
+      <c r="J11" s="7">
+        <v>44667.957638888889</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="P11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+      <c r="S11" s="5">
+        <v>999</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="48">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1469,22 +1570,42 @@
         <v>22</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="I12" s="7">
+        <v>40284.959027777775</v>
+      </c>
+      <c r="J12" s="7">
+        <v>44667.957638888889</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="P12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5">
+        <v>999</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="24">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1507,22 +1628,42 @@
         <v>22</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="I13" s="7">
+        <v>45001.341666666667</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-    </row>
-    <row r="14" spans="1:20" ht="24">
+      <c r="P13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5">
+        <v>999</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="252">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -1545,30 +1686,30 @@
         <v>22</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I14" s="7">
-        <v>45001.341666666667</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>60</v>
+        <v>38033.000694444447</v>
+      </c>
+      <c r="J14" s="7">
+        <v>46859.999305555553</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R14" s="5">
         <v>0</v>
@@ -1577,7 +1718,7 @@
         <v>999</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="252">
@@ -1603,30 +1744,30 @@
         <v>22</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>38033.000694444447</v>
-      </c>
-      <c r="J15" s="7">
-        <v>46859.999305555553</v>
+        <v>39098.717361111114</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R15" s="5">
         <v>0</v>
@@ -1635,10 +1776,10 @@
         <v>999</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="252">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="36">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -1661,30 +1802,30 @@
         <v>22</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I16" s="7">
-        <v>39098.717361111114</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>60</v>
+        <v>11398</v>
+      </c>
+      <c r="J16" s="7">
+        <v>41745.999305555553</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R16" s="5">
         <v>0</v>
@@ -1693,7 +1834,7 @@
         <v>999</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="180">
@@ -1719,30 +1860,30 @@
         <v>22</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I17" s="7">
         <v>37696.479166666664</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R17" s="5">
         <v>0</v>
@@ -1751,7 +1892,7 @@
         <v>999</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="60">
@@ -1777,7 +1918,7 @@
         <v>22</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I18" s="7">
         <v>46828.497916666667</v>
@@ -1786,21 +1927,21 @@
         <v>46189.5</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R18" s="5">
         <v>0</v>
@@ -1809,10 +1950,10 @@
         <v>999</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="24">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="60">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1835,39 +1976,39 @@
         <v>22</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I19" s="7">
-        <v>43206.3125</v>
-      </c>
-      <c r="J19" s="7">
-        <v>44667.6875</v>
+        <v>46069.652083333334</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="R19" s="5">
         <v>0</v>
       </c>
       <c r="S19" s="5">
-        <v>22</v>
+        <v>999</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="60">
@@ -1893,42 +2034,42 @@
         <v>22</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I20" s="7">
-        <v>46069.652083333334</v>
+        <v>11398.844444444445</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="R20" s="5">
         <v>0</v>
       </c>
       <c r="S20" s="5">
-        <v>999</v>
+        <v>25</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="60">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="48">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -1951,42 +2092,42 @@
         <v>22</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I21" s="7">
-        <v>11398.844444444445</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>60</v>
+        <v>41655.418055555558</v>
+      </c>
+      <c r="J21" s="7">
+        <v>41380.999305555553</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R21" s="5">
         <v>0</v>
       </c>
       <c r="S21" s="5">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="72">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="36">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -2009,42 +2150,42 @@
         <v>22</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I22" s="7">
-        <v>47193.25</v>
+        <v>11033.340972222222</v>
       </c>
       <c r="J22" s="7">
-        <v>11064.791666666666</v>
+        <v>11064.729166666666</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="R22" s="5">
         <v>0</v>
       </c>
       <c r="S22" s="5">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="48">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="72">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -2067,46 +2208,42 @@
         <v>22</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I23" s="7">
-        <v>43571.291666666664</v>
+        <v>47193.25</v>
       </c>
       <c r="J23" s="7">
-        <v>43571.666666666664</v>
+        <v>11064.791666666666</v>
       </c>
       <c r="K23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0</v>
+      </c>
+      <c r="S23" s="5">
         <v>100</v>
       </c>
-      <c r="L23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="O23" s="5">
-        <v>2000</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="R23" s="5">
-        <v>0</v>
-      </c>
-      <c r="S23" s="5">
-        <v>65</v>
-      </c>
       <c r="T23" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="192">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -2129,44 +2266,22 @@
         <v>22</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="7">
-        <v>36966.000694444447</v>
-      </c>
-      <c r="J24" s="7">
-        <v>46158.999305555553</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="R24" s="5">
-        <v>0</v>
-      </c>
-      <c r="S24" s="5">
-        <v>999</v>
-      </c>
-      <c r="T24" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="108">
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2189,44 +2304,22 @@
         <v>22</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="7">
-        <v>36997.40625</v>
-      </c>
-      <c r="J25" s="7">
-        <v>46920.999305555553</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="R25" s="5">
-        <v>0</v>
-      </c>
-      <c r="S25" s="5">
-        <v>999</v>
-      </c>
-      <c r="T25" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="36">
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="1:20" ht="48">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -2249,42 +2342,42 @@
         <v>22</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I26" s="7">
-        <v>42476.3125</v>
-      </c>
-      <c r="J26" s="7">
-        <v>44667.708333333336</v>
+        <v>40405</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="L26" s="5"/>
+        <v>111</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="M26" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="R26" s="5">
         <v>0</v>
       </c>
       <c r="S26" s="5">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="48">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="24">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -2307,44 +2400,42 @@
         <v>22</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I27" s="7">
-        <v>46768.375</v>
+        <v>44271.650694444441</v>
       </c>
       <c r="J27" s="7">
-        <v>46128.8125</v>
+        <v>11064.708333333334</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="R27" s="5">
         <v>0</v>
       </c>
       <c r="S27" s="5">
-        <v>5</v>
+        <v>999</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="180">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="240">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -2367,41 +2458,453 @@
         <v>22</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I28" s="7">
-        <v>43571.541666666664</v>
+        <v>47193.488888888889</v>
       </c>
       <c r="J28" s="7">
-        <v>43571.583333333336</v>
+        <v>46281.999305555553</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>101</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R28" s="5">
+        <v>0</v>
+      </c>
+      <c r="S28" s="5">
+        <v>195</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="120">
+      <c r="A29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="5">
+        <v>26</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="5">
+        <v>26</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="7">
+        <v>47193.490277777775</v>
+      </c>
+      <c r="J29" s="7">
+        <v>46281.999305555553</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R29" s="5">
+        <v>0</v>
+      </c>
+      <c r="S29" s="5">
+        <v>195</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="48">
+      <c r="A30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="5">
+        <v>27</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="5">
+        <v>27</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="7">
+        <v>11398</v>
+      </c>
+      <c r="J30" s="7">
+        <v>41380.999305555553</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R30" s="5">
+        <v>0</v>
+      </c>
+      <c r="S30" s="5">
+        <v>999</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="228">
+      <c r="A31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="5">
         <v>28</v>
       </c>
-      <c r="Q28" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="R28" s="5">
-        <v>0</v>
-      </c>
-      <c r="S28" s="5">
-        <v>24</v>
-      </c>
-      <c r="T28" s="5" t="s">
-        <v>123</v>
+      <c r="D31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="5">
+        <v>28</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I31" s="7">
+        <v>46828</v>
+      </c>
+      <c r="J31" s="7">
+        <v>46493.999305555553</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0</v>
+      </c>
+      <c r="S31" s="5">
+        <v>999</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="120">
+      <c r="A32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="5">
+        <v>29</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="5">
+        <v>29</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" s="7">
+        <v>38823.306250000001</v>
+      </c>
+      <c r="J32" s="7">
+        <v>40649.625</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0</v>
+      </c>
+      <c r="S32" s="5">
+        <v>999</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="60">
+      <c r="A33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="5">
+        <v>30</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="5">
+        <v>30</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I33" s="7">
+        <v>40649.291666666664</v>
+      </c>
+      <c r="J33" s="7">
+        <v>40649.666666666664</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O33" s="5">
+        <v>2000</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="R33" s="5">
+        <v>0</v>
+      </c>
+      <c r="S33" s="5">
+        <v>65</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="192">
+      <c r="A34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="5">
+        <v>31</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="5">
+        <v>31</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" s="7">
+        <v>36966.000694444447</v>
+      </c>
+      <c r="J34" s="7">
+        <v>46158.999305555553</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="R34" s="5">
+        <v>0</v>
+      </c>
+      <c r="S34" s="5">
+        <v>999</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="108">
+      <c r="A35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="5">
+        <v>32</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="5">
+        <v>32</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I35" s="7">
+        <v>36997.40625</v>
+      </c>
+      <c r="J35" s="7">
+        <v>46920.999305555553</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="R35" s="5">
+        <v>0</v>
+      </c>
+      <c r="S35" s="5">
+        <v>999</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2436,6 +2939,13 @@
     <hyperlink ref="G26" r:id="rId23"/>
     <hyperlink ref="G27" r:id="rId24"/>
     <hyperlink ref="G28" r:id="rId25"/>
+    <hyperlink ref="G29" r:id="rId26"/>
+    <hyperlink ref="G30" r:id="rId27"/>
+    <hyperlink ref="G31" r:id="rId28"/>
+    <hyperlink ref="G32" r:id="rId29"/>
+    <hyperlink ref="G33" r:id="rId30"/>
+    <hyperlink ref="G34" r:id="rId31"/>
+    <hyperlink ref="G35" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/Notams.xlsx
+++ b/Notams.xlsx
@@ -24,7 +24,7 @@
     <t>Data Set: notam_decode</t>
   </si>
   <si>
-    <t>Generated on April 23rd 2016 at 1:37:25pm by peri287</t>
+    <t>Generated on April 26th 2016 at 3:09:30pm by peri287</t>
   </si>
   <si>
     <t>Input</t>

--- a/Notams.xlsx
+++ b/Notams.xlsx
@@ -19,12 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="158">
   <si>
     <t>Data Set: notam_decode</t>
   </si>
   <si>
-    <t>Generated on April 26th 2016 at 3:09:30pm by peri287</t>
+    <t>Generated on April 26th 2016 at 3:14:40pm by peri287</t>
   </si>
   <si>
     <t>Input</t>
@@ -93,6 +93,75 @@
     <t>notam_decode</t>
   </si>
   <si>
+    <t>C1038/16</t>
+  </si>
+  <si>
+    <t>Q) EGTT/QMRXX/IV/NBO/A/000/999/5250N00120W005</t>
+  </si>
+  <si>
+    <t>5250N00120W</t>
+  </si>
+  <si>
+    <t>5250N00120W005</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>E) DUE TO WORK IN PROGRESS ON RWY 09/27 THE FOLLOWING LEAD ON/OFF LIGHTS FOR RWY 09/27 INTERSECTIONS HAVE BEEN REMOVED: HOTEL - 09 LEAD ONS/27 LEAD OFFS, MIKE - 09 LEAD OFFS/27 LEAD ONS, SIERRA - 09/27 LEAD ONS AND LEAD OFFS, WHISKEY - 09 LEAD ONS/27 LEAD OFFS. BLUE EDGE LIGHTING REMAINS SERVICEABLE AT ALL OF THE ABOVE.</t>
+  </si>
+  <si>
+    <t>C1539/16</t>
+  </si>
+  <si>
+    <t>Q) EGTT/QOBCE/IV/M/AE/000/005/5250N00121W001</t>
+  </si>
+  <si>
+    <t>5250N00121W</t>
+  </si>
+  <si>
+    <t>5250N00121W001</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>E) CRANES OPERATING TO THE WEST OF THE DHL BUILDING PSN 524934N 0012106W EAST MIDLANDS AD MAX HT 126FT AGL/432FT AMSL</t>
+  </si>
+  <si>
+    <t>K0053/16</t>
+  </si>
+  <si>
+    <t>Q) EGTT/QOBCE/IV/M/AE/000/005/5249N00110W001</t>
+  </si>
+  <si>
+    <t>5249N00110W</t>
+  </si>
+  <si>
+    <t>5249N00110W001</t>
+  </si>
+  <si>
+    <t>E) NEST OF CRANES IN LOW FLYING AREA 8, THE DERBY / NOTTINGHAM AVIODANCE AREA AND NIGHT SECTOR 5F WI 1NM RADIUS OF PSN 524835N 0011021W (STANFORD HALL, LEICESTERSHIRE) MAX HEIGHT 185FT AGL/450FT AMSL. 16/03/009/OPSLF</t>
+  </si>
+  <si>
+    <t>C0988/16</t>
+  </si>
+  <si>
+    <t>Q) EGTT/QSPLT/IV/BO/AE/000/105/5248N00115W028</t>
+  </si>
+  <si>
+    <t>5248N00115W</t>
+  </si>
+  <si>
+    <t>5248N00115W028</t>
+  </si>
+  <si>
+    <t>E) SRA PROCEDURE WITHDRAWN WITH IMMEDIATE EFFECT</t>
+  </si>
+  <si>
     <t>B2758/15</t>
   </si>
   <si>
@@ -108,12 +177,6 @@
     <t>5033N00140E005</t>
   </si>
   <si>
-    <t>IV</t>
-  </si>
-  <si>
-    <t>AE</t>
-  </si>
-  <si>
     <t>E) 3 WIND TURBINES AT FRENCQ RDL036/3.02NM LFAT ARP: PSN: 503319N 0014027E HEIGHT: 377FT ELEVATION: 820FT DAY AND NIGHT LIGHTED</t>
   </si>
   <si>
@@ -144,9 +207,6 @@
     <t>5031N00138E005</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>E) FPL DEPOSIT IN DEPARTURE OF LE TOUQUET, USE ONLY INTERNET WAY. FAX TRANSMITTED FPL WILL NOT BE PROCESSED.</t>
   </si>
   <si>
@@ -168,19 +228,214 @@
     <t>E) TKOF RWY 13/31 MINIMA CHANGED : -BY DAY, WITH OR WITHOUT ATS: FOR CAT A, CAT B, CAT C : RVR HIGHER OR EQUAL TO 550M -BY NIGHT, WITH OR WITHOUT ATS : FOR CAT A, CAT B, CAT C : RVR HIGHER OR EQUAL TO 800M</t>
   </si>
   <si>
-    <t>B2151/16</t>
-  </si>
-  <si>
-    <t>Q) LFFF/QFULT/IV/NBO/A/000/999/5031N00138E005</t>
-  </si>
-  <si>
-    <t>E) REFUELLING AVGAS 100LL NOT AVAILABLE AT THE STATION 'TOTAL': REFUELLING AVAILBLE BY FUEL TRUCK.</t>
-  </si>
-  <si>
-    <t>B0036/16</t>
-  </si>
-  <si>
-    <t>Q) EGXX/QCSXX/I/B/E/000/999/5504N00500W999</t>
+    <t>B0434/16</t>
+  </si>
+  <si>
+    <t>Q) EGTT/QAFXX/IV/NBO/E/000/999/5248N00149W999</t>
+  </si>
+  <si>
+    <t>5248N00149W</t>
+  </si>
+  <si>
+    <t>5248N00149W999</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>E) DELETE ENTRY FOR CROSS HAYES GLIDER SITE, STAFFORDSHIRE UK AIP ENR 5.5 REFERS</t>
+  </si>
+  <si>
+    <t>B0126/16</t>
+  </si>
+  <si>
+    <t>Q) EGXX/QAFXX/IV/NBO/E/000/999/5229N01900W999</t>
+  </si>
+  <si>
+    <t>5229N01900W</t>
+  </si>
+  <si>
+    <t>5229N01900W999</t>
+  </si>
+  <si>
+    <t>E) WEF FROM 04 FEBRUARY 2016 THE AIRSPACE CURRENTLY DESIGNATED AS THE NORTH ATLANTIC MINIMUM NAVIGATION PERFORMANCE SPECIFICATIONS AIRSPACE (NAT MNPSA) WILL BE RE-NAMED AS THE NORTH ATLANTIC HIGH LEVEL AIRSPACE (NAT HLA) AND WILL ALSO INCLUDE THE BODO OCEANIC CONTROL AREA. EXISTING MNPS APPROVALS WILL REMAIN VALID UNTIL 30 JANUARY 2020 AND FLIGHT PLANS SHOULD CONTINUE TO BE ANNOTATED WITH THE LETTER 'X' IN FIELD 10 TO INDICATE THAT THE AIRCRAFT MEETS THE REQUIREMENTS OF HLA OPERATIONS. FROM JANUARY 2015 OPERATORS APPLYING FOR AUTHORISATION TO OPR IN THE NAT MNPSA HAVE BEEN REQUIRED TO BE APPROVED FOR RNP 10 OR RNP 4 AND THIS WILL REMAIN THE POLICY FOR NAT HLA APPROVAL. ALL UK OPERATORS WITH EXISTING MNPSA APPROVALS WILL BE REQUIRED TO SATISFY THE REQUIREMENTS OF RNP 10 OR RNP 4 BY 30 JANUARY 2020 TO ALLOW THEIR APPROVALS TO CONTINUE. 2016-01-0272/AS6</t>
+  </si>
+  <si>
+    <t>B0037/16</t>
+  </si>
+  <si>
+    <t>Q) EGXX/QAFXX/IV/NBO/E/000/999/5218N01451W999</t>
+  </si>
+  <si>
+    <t>5218N01451W</t>
+  </si>
+  <si>
+    <t>5218N01451W999</t>
+  </si>
+  <si>
+    <t>E) ON THE 25 JAN 16 THE UK AIS WILL RELOCATE TO SWANWICK. ALL AGENCIES TO AMEND POSTAL AND CONTACTS AS FOLLOWS. NOTE EXISTING CONTACT NUMBERS REMAIN IN FORCE UNTIL 25 JAN 16 POST: AERONAUTICAL INFORMATION SERVICE (AIS) NATS SWANWICK ROOM 3115 SOPWITH WAY SOUTHAMPTON HANTS SO31 7AY UK AIP GEN 0.1 / GEN 3.1 / GEN 3.2 / ENR CHART 6-1-4-2 REFER TELEPHONE NUMBERS: UK NOTAM OFFICE 01489 612488 / 01489 612489 UK NOTAM OFFICE 07769 672014 (CONTINGENCY MOBILE) FAX (AIS/NOTAM) 01489 612490 UK AIS INFO LINE 0500 354802 / 01489 887515 UK AIS PUBLICATIONS 01489 887462 UK CHARTING SECTION 01489 887463 FOREIGN AIP LIBRARY 01489 887462 UK AIP GEN 3.1 / GEN 3.2 REFER EMAIL: AISSUPERVISOR(AT)NATS.CO.UK (GENERAL AIS ENQUIRIES) EG(UNDERSCORE)NOTAMPROP(AT)EAD.EUROCONTROL.INT (NOTAM PROPOSALS) UK AIP GEN 0.1 / GEN 3.1 / GEN 3.2 REFER</t>
+  </si>
+  <si>
+    <t>B0310/16</t>
+  </si>
+  <si>
+    <t>E) SAR CONTACT DETAILS CHANGED: DELETE GEN 3.6-1.1.3 ADD: SAR AVIATION SERVICES ARE MANAGED BY THE MCA AVIATION TEAM. POST: MCA AVIATION TEAM, SPRING PLACE, 105 COMMERCIAL ROAD, SOUTHAMPTON, HAMPSHIRE, SO15 1EG PHONE: 023-8032-9100 ADD 1.1.4 IMPLEMENTATION OF SAR SERVICES FOR CIVIL AVIATION THROUGHOUT THE UK SRR IS UNDERTAKEN BY THE UK AIR RESCUE COORDINATION CENTRE(ARCC). POST: UK AERONAUTICAL RESCUE COORDINATION CENTRE, HMCG NATIONAL MARITIME OPERATIONS CENTRE, 12 KITES CROFT BUSINESS PARK, FAREHAM, HAMPSHIRE PO14 4LW PHONE: 023-8032-9100 AIP GEN 3.6-1.1.3 REFERS</t>
+  </si>
+  <si>
+    <t>B0501/16</t>
+  </si>
+  <si>
+    <t>E) AMEND AIC M018/2016. RESTRICTION OF FLYING REGULATIONS - HYLANDS PARK, ESSEX - 19-22 AUGUST 2016 AMEND PARAGRAPH 1A TO READ BETWEEN 0700 ON 19 AUGUST 2016 AND 1300 HOURS ON 22 AUGUST 2016. 2016-08-0008/AS6</t>
+  </si>
+  <si>
+    <t>B0279/16</t>
+  </si>
+  <si>
+    <t>Q) EGTT/QANCH/I/NBO/E/000/999/5155N00157W999</t>
+  </si>
+  <si>
+    <t>5155N00157W</t>
+  </si>
+  <si>
+    <t>5155N00157W999</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>E) ROUTES BETWEEN NORTHERN EUROPE AND SPAIN/CANARIES/LISBON FIR CHANGE ROUTE TANGO SIXTEEN (T16) IN TABLE 3.18.1 TO READ OMOKO, GONAN, ETESO, NAVIX ENR 2.2 OTHER REGULATED AIRSPACE, 3.18 REFERS</t>
+  </si>
+  <si>
+    <t>C1159/16</t>
+  </si>
+  <si>
+    <t>Q) EGTT/QCAXX/IV/B/AE/000/025/5132N00000E010</t>
+  </si>
+  <si>
+    <t>5132N00000E</t>
+  </si>
+  <si>
+    <t>5132N00000E010</t>
+  </si>
+  <si>
+    <t>E) CHART FREQUENCIES TO READ: APP 132.700 THAMES DIRECTOR TWR 118.075, 129.450 CITY TOWER RAD 133.450, 128.025 THAMES DIRECTOR ATIS 136.350 CITY INFORMATION UK AIP AD 2-EGLC-8-5 REFERS</t>
+  </si>
+  <si>
+    <t>L1942/16</t>
+  </si>
+  <si>
+    <t>Q) EGTT/QOBCE/IV/M/AE/000/006/5121N00031E001</t>
+  </si>
+  <si>
+    <t>5121N00031E</t>
+  </si>
+  <si>
+    <t>5121N00031E001</t>
+  </si>
+  <si>
+    <t>E) PILING RIG OPR 512118N 0003032E (ROCHESTER AD). APRX 50M EAST OF AD BOUNDARY. MAX HGT 93FT AGL, 528FT AMSL</t>
+  </si>
+  <si>
+    <t>L2368/16</t>
+  </si>
+  <si>
+    <t>E) CRANE OPR 512129N 0003038E (ROCHESTER), APRX 300M NE OF RWY 20. MAX HGT 118FT AGL/554FT AMSL</t>
+  </si>
+  <si>
+    <t>B0167/16</t>
+  </si>
+  <si>
+    <t>Q) EGTT/QSEXX/IV/B/E/000/100/5117N00047W050</t>
+  </si>
+  <si>
+    <t>5117N00047W</t>
+  </si>
+  <si>
+    <t>5117N00047W050</t>
+  </si>
+  <si>
+    <t>E) FARNBOROUGH RADAR AND TOWER MAY BE PROVIDED AS A COMBINED SERVICE WITH COUPLED FREQUENCIES. AIRCRAFT FOR FARNBOROUGH LOWER AIRSPACE RADAR SERVICE SHOULD CONTACT FARNBOROUGH ON 125.250 MHZ.</t>
+  </si>
+  <si>
+    <t>P0634/15</t>
+  </si>
+  <si>
+    <t>Q) LFFF/QOBCE/IV/M/E/000/006/5022N00143E005</t>
+  </si>
+  <si>
+    <t>5022N00143E</t>
+  </si>
+  <si>
+    <t>5022N00143E005</t>
+  </si>
+  <si>
+    <t>E) OBSTACLE: 10 WIND TURBINES OPR AT TIGNY NOYELLE (62) RDL 128/5,76NM ARP LFAM (BERCK SUR MER) PSN: 502153N 0014239E HEIGHT: 397FT ELEV: 544FT LIGHTING: NIL</t>
+  </si>
+  <si>
+    <t>F0514/16</t>
+  </si>
+  <si>
+    <t>Q) LFFF/QNVAS/IV/BO/AE/000/999/5008N00151E025</t>
+  </si>
+  <si>
+    <t>5008N00151E</t>
+  </si>
+  <si>
+    <t>5008N00151E025</t>
+  </si>
+  <si>
+    <t>E) VOR/DME ABB 108.450MHZ VOR PART U/S : DO NOT USE, POSSIBLE FALSE INDICATIONS</t>
+  </si>
+  <si>
+    <t>A1108/16</t>
+  </si>
+  <si>
+    <t>Q) LFFF/QACXX/V/NBO/AE/000/195/4904N00232E106</t>
+  </si>
+  <si>
+    <t>4904N00232E</t>
+  </si>
+  <si>
+    <t>4904N00232E106</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>E) CONTRARY TO THE INSTRUCTIONS PUBLISHED ON NOVEMBER 13TH 2014 ON PAGES AIP AD 2 LFPG TXT 02 AND AD 3 LFPG TXT 02, AND EXCEPTING PUBLIC MISSION FLIGHTS OF SERA ARTICLE 4, VFR USERS ALLOWED TO FLY IN PARIS CTR AND IN LF-R275 AREA,MUST COMPLY WITH THE FOLLOWING MEASURES. - ALL VFR AIRCRAFT (AIRPLANES AND HELICOPTERS) ARRIVING TO OR DEPARTING FROM PARIS CHARLES DE GAULLE (USING CDG RUNWAYS OR HELISTOP) ARE TEMPORARILY FORBIDDEN IN SPECIAL VFR CONDITIONS. THESE VFR FLIGHTS ARE ALLOWED ONLY IN VMC CONDITIONS WITHIN CLASS D AIRSPACE. - EVERY REQUEST FOR AIR WORK IN VFR (AIRPLANE OR HELICOPTER), WHOSE TRAJECTORY IS LIKELY TO INTERFERE WITH IFR PROCEDURES AT PARIS CHARLES DE GAULLE AND/OR PARIS LE BOURGET, WILL BE POTENTIALLY REFUSED IN SPECIAL VFR CONDITIONS IN PARIS CTR</t>
+  </si>
+  <si>
+    <t>A1109/16</t>
+  </si>
+  <si>
+    <t>E) CONTRARY TO THE INSTRUCTIONS PUBLISHED ON NOVEMBER 13TH 2014 ON PAGES AIP AD 2 LFPG TXT 02 AND AD 3 LFPG TXT 02, VFR USERS ALLOWED TO FLY IN PARIS CTR AND IN LF-R275 AREA, MUST COMPLY WITH THE FOLLOWING PROVISIONS : IN ANY MET CONDITIONS, NO VISUAL SEPARATION CLEARANCE IS TEMPORARILY APPLICABLE BETWEEN IFR FLIGHTS AND A VFR FLYING SOUTH OF RH1 POINT AND NORTH OF RH2 POINT.</t>
+  </si>
+  <si>
+    <t>F0719/16</t>
+  </si>
+  <si>
+    <t>Q) LFXX/QAFXX/IV/NBO/E/000/999/4504N00053E999</t>
+  </si>
+  <si>
+    <t>4504N00053E</t>
+  </si>
+  <si>
+    <t>4504N00053E999</t>
+  </si>
+  <si>
+    <t>E) AN OPEN SKY PRIORITY FLIGHT WOULD TAKE PLACE BETWEEN 25 AND 29 APR 2016. A SECOND NOTAM PUBLISHED 15HR BEFORE ETD WILL NOTIFY DATES, HOURS, ROUTES AND LEVELS OF THIS FLIGHT</t>
+  </si>
+  <si>
+    <t>F0749/16</t>
+  </si>
+  <si>
+    <t>E) ACCORDING TO FRENCH DEPARTMENT OF THE INTERIOR INSTRUCTIONS, AND PURSUANT TO : - ICAO ANNEX 9 STANDARD 3.33, - ARTICLE 26 OF SCHENGEN CONVENTION (1985, JUNE 14TH) - ARTICLE L.625.1 OF 'CODE DE L'ENTREE ET DU SEJOUR DES ETRANGERS ET DU DROIT D'ASILE' CESEDA (FRENCH CODE ABOUT FOREIGNERS ENTRY CONDITIONS AND RIGHT OF ASYLUM), IT IS COMPULSORY FOR AIRLINE CARRIERS SERVING METROPOLITAN FRANCE TO VERIFY EVERY PASSENGER TRAVEL DOCUMENT FOR EVERY INBOUND FLIGHT TO METROPOLITAN FRANCE, COMING FROM INSIDE/OUTSIDE THE SCHENGEN AREA DURING THE FLW PERIOD : 2016, FM 27TH APRIL TO 26TH MAY. FAILURE TO COMPLY COULD LEAD TO PAY A MAXIMUM 5000 EURO FINE PER PASSENGER IN ADDITION TO PAYMENT OF THE COSTS OF REMOVAL OF EACH INADMISSABLE TRAVELLER</t>
+  </si>
+  <si>
+    <t>H1881/16</t>
+  </si>
+  <si>
+    <t>Q) EGXX/QWYLW/IV/M/W/000/065/5504N00500W999</t>
   </si>
   <si>
     <t>5504N00500W</t>
@@ -189,274 +444,13 @@
     <t>5504N00500W999</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>E) CHANGE OF SSR CODES ALLOCATED TO DISTRESS AND DIVERSION CELL REPLACE 3301-3304 SWANWICK (MILITARY) SPECIAL TASKS 3305-3307 AIRCRAFT RECEIVING A SERVICE FROM LONDON DISTRESS AND DIVERSION CELL WITH 3301-3303 SWANWICK (MILITARY) SPECIAL TASKS 3304-3306 AIRCRAFT RECEIVING A SERVICE FROM LONDON DISTRESS AND DIVERSION CELL 3307 DISTRESS AND DIVERSION CELL CONSPICUITY TRAINING FIX UK AIP ENR 1.6 REFERS</t>
-  </si>
-  <si>
-    <t>B0538/16</t>
-  </si>
-  <si>
-    <t>E) SSR MODE 3/A CODES 1600 TO 1677 TEMPO ALLOCATED TO EXER GRIFFIN STRIKE 16, SFC-UNL. OPS CTC 01436 674321 EXTENSION 4409. 16-04-0041/AS4.</t>
-  </si>
-  <si>
-    <t>B0540/16</t>
-  </si>
-  <si>
-    <t>E) SSR MODE 3/A CODES 1501 TO 1537, 2400 TO 2477, AND 1700 TO 1727 TEMPO ALLOCATED TO EXER JOINT WARRIOR 161. OPS CTC 01436 674321 EXTENSION 4409. 16-04-0042/AS4.</t>
-  </si>
-  <si>
-    <t>B0434/16</t>
-  </si>
-  <si>
-    <t>Q) EGTT/QAFXX/IV/NBO/E/000/999/5248N00149W999</t>
-  </si>
-  <si>
-    <t>5248N00149W</t>
-  </si>
-  <si>
-    <t>5248N00149W999</t>
-  </si>
-  <si>
-    <t>E) DELETE ENTRY FOR CROSS HAYES GLIDER SITE, STAFFORDSHIRE UK AIP ENR 5.5 REFERS</t>
-  </si>
-  <si>
-    <t>B0126/16</t>
-  </si>
-  <si>
-    <t>Q) EGXX/QAFXX/IV/NBO/E/000/999/5229N01900W999</t>
-  </si>
-  <si>
-    <t>5229N01900W</t>
-  </si>
-  <si>
-    <t>5229N01900W999</t>
-  </si>
-  <si>
-    <t>E) WEF FROM 04 FEBRUARY 2016 THE AIRSPACE CURRENTLY DESIGNATED AS THE NORTH ATLANTIC MINIMUM NAVIGATION PERFORMANCE SPECIFICATIONS AIRSPACE (NAT MNPSA) WILL BE RE-NAMED AS THE NORTH ATLANTIC HIGH LEVEL AIRSPACE (NAT HLA) AND WILL ALSO INCLUDE THE BODO OCEANIC CONTROL AREA. EXISTING MNPS APPROVALS WILL REMAIN VALID UNTIL 30 JANUARY 2020 AND FLIGHT PLANS SHOULD CONTINUE TO BE ANNOTATED WITH THE LETTER 'X' IN FIELD 10 TO INDICATE THAT THE AIRCRAFT MEETS THE REQUIREMENTS OF HLA OPERATIONS. FROM JANUARY 2015 OPERATORS APPLYING FOR AUTHORISATION TO OPR IN THE NAT MNPSA HAVE BEEN REQUIRED TO BE APPROVED FOR RNP 10 OR RNP 4 AND THIS WILL REMAIN THE POLICY FOR NAT HLA APPROVAL. ALL UK OPERATORS WITH EXISTING MNPSA APPROVALS WILL BE REQUIRED TO SATISFY THE REQUIREMENTS OF RNP 10 OR RNP 4 BY 30 JANUARY 2020 TO ALLOW THEIR APPROVALS TO CONTINUE. 2016-01-0272/AS6</t>
-  </si>
-  <si>
-    <t>B0037/16</t>
-  </si>
-  <si>
-    <t>Q) EGXX/QAFXX/IV/NBO/E/000/999/5218N01451W999</t>
-  </si>
-  <si>
-    <t>5218N01451W</t>
-  </si>
-  <si>
-    <t>5218N01451W999</t>
-  </si>
-  <si>
-    <t>E) ON THE 25 JAN 16 THE UK AIS WILL RELOCATE TO SWANWICK. ALL AGENCIES TO AMEND POSTAL AND CONTACTS AS FOLLOWS. NOTE EXISTING CONTACT NUMBERS REMAIN IN FORCE UNTIL 25 JAN 16 POST: AERONAUTICAL INFORMATION SERVICE (AIS) NATS SWANWICK ROOM 3115 SOPWITH WAY SOUTHAMPTON HANTS SO31 7AY UK AIP GEN 0.1 / GEN 3.1 / GEN 3.2 / ENR CHART 6-1-4-2 REFER TELEPHONE NUMBERS: UK NOTAM OFFICE 01489 612488 / 01489 612489 UK NOTAM OFFICE 07769 672014 (CONTINGENCY MOBILE) FAX (AIS/NOTAM) 01489 612490 UK AIS INFO LINE 0500 354802 / 01489 887515 UK AIS PUBLICATIONS 01489 887462 UK CHARTING SECTION 01489 887463 FOREIGN AIP LIBRARY 01489 887462 UK AIP GEN 3.1 / GEN 3.2 REFER EMAIL: AISSUPERVISOR(AT)NATS.CO.UK (GENERAL AIS ENQUIRIES) EG(UNDERSCORE)NOTAMPROP(AT)EAD.EUROCONTROL.INT (NOTAM PROPOSALS) UK AIP GEN 0.1 / GEN 3.1 / GEN 3.2 REFER</t>
-  </si>
-  <si>
-    <t>B0239/16</t>
-  </si>
-  <si>
-    <t>Q) EGXX/QAFTT/IV/BO/E/000/999/5218N01451W999</t>
-  </si>
-  <si>
-    <t>E) TRIGGER NOTAM - PERM AIRAC AIP AMDT 04/16 WEF 31 MAR 16, MULTIPLE CHANGES, SEE COVER SHEET FOR FULL DETAILS</t>
-  </si>
-  <si>
-    <t>B0310/16</t>
-  </si>
-  <si>
-    <t>E) SAR CONTACT DETAILS CHANGED: DELETE GEN 3.6-1.1.3 ADD: SAR AVIATION SERVICES ARE MANAGED BY THE MCA AVIATION TEAM. POST: MCA AVIATION TEAM, SPRING PLACE, 105 COMMERCIAL ROAD, SOUTHAMPTON, HAMPSHIRE, SO15 1EG PHONE: 023-8032-9100 ADD 1.1.4 IMPLEMENTATION OF SAR SERVICES FOR CIVIL AVIATION THROUGHOUT THE UK SRR IS UNDERTAKEN BY THE UK AIR RESCUE COORDINATION CENTRE(ARCC). POST: UK AERONAUTICAL RESCUE COORDINATION CENTRE, HMCG NATIONAL MARITIME OPERATIONS CENTRE, 12 KITES CROFT BUSINESS PARK, FAREHAM, HAMPSHIRE PO14 4LW PHONE: 023-8032-9100 AIP GEN 3.6-1.1.3 REFERS</t>
-  </si>
-  <si>
-    <t>B0501/16</t>
-  </si>
-  <si>
-    <t>E) AMEND AIC M018/2016. RESTRICTION OF FLYING REGULATIONS - HYLANDS PARK, ESSEX - 19-22 AUGUST 2016 AMEND PARAGRAPH 1A TO READ BETWEEN 0700 ON 19 AUGUST 2016 AND 1300 HOURS ON 22 AUGUST 2016. 2016-08-0008/AS6</t>
-  </si>
-  <si>
-    <t>B0279/16</t>
-  </si>
-  <si>
-    <t>Q) EGTT/QANCH/I/NBO/E/000/999/5155N00157W999</t>
-  </si>
-  <si>
-    <t>5155N00157W</t>
-  </si>
-  <si>
-    <t>5155N00157W999</t>
-  </si>
-  <si>
-    <t>E) ROUTES BETWEEN NORTHERN EUROPE AND SPAIN/CANARIES/LISBON FIR CHANGE ROUTE TANGO SIXTEEN (T16) IN TABLE 3.18.1 TO READ OMOKO, GONAN, ETESO, NAVIX ENR 2.2 OTHER REGULATED AIRSPACE, 3.18 REFERS</t>
-  </si>
-  <si>
-    <t>C1159/16</t>
-  </si>
-  <si>
-    <t>Q) EGTT/QCAXX/IV/B/AE/000/025/5132N00000E010</t>
-  </si>
-  <si>
-    <t>5132N00000E</t>
-  </si>
-  <si>
-    <t>5132N00000E010</t>
-  </si>
-  <si>
-    <t>E) CHART FREQUENCIES TO READ: APP 132.700 THAMES DIRECTOR TWR 118.075, 129.450 CITY TOWER RAD 133.450, 128.025 THAMES DIRECTOR ATIS 136.350 CITY INFORMATION UK AIP AD 2-EGLC-8-5 REFERS</t>
-  </si>
-  <si>
-    <t>C0210/16</t>
-  </si>
-  <si>
-    <t>Q) EGTT/QOBCE/IV/M/AE/000/003/5130N00004E005</t>
-  </si>
-  <si>
-    <t>5130N00004E</t>
-  </si>
-  <si>
-    <t>5130N00004E005</t>
-  </si>
-  <si>
-    <t>E) CONSTRUCTION SITE CRANE /LIT MAX HGT 269FT AGL/285FT AMSL OPR PSN 512940N 0000403E WOOLWICH RIVERSIDE TC1. CTC AIRFIELD DUTY MGR +44 2076460241</t>
-  </si>
-  <si>
-    <t>L1942/16</t>
-  </si>
-  <si>
-    <t>Q) EGTT/QOBCE/IV/M/AE/000/006/5121N00031E001</t>
-  </si>
-  <si>
-    <t>5121N00031E</t>
-  </si>
-  <si>
-    <t>5121N00031E001</t>
-  </si>
-  <si>
-    <t>E) PILING RIG OPR 512118N 0003032E (ROCHESTER AD). APRX 50M EAST OF AD BOUNDARY. MAX HGT 93FT AGL, 528FT AMSL</t>
-  </si>
-  <si>
-    <t>B0167/16</t>
-  </si>
-  <si>
-    <t>Q) EGTT/QSEXX/IV/B/E/000/100/5117N00047W050</t>
-  </si>
-  <si>
-    <t>5117N00047W</t>
-  </si>
-  <si>
-    <t>5117N00047W050</t>
-  </si>
-  <si>
-    <t>E) FARNBOROUGH RADAR AND TOWER MAY BE PROVIDED AS A COMBINED SERVICE WITH COUPLED FREQUENCIES. AIRCRAFT FOR FARNBOROUGH LOWER AIRSPACE RADAR SERVICE SHOULD CONTACT FARNBOROUGH ON 125.250 MHZ.</t>
-  </si>
-  <si>
-    <t>P0634/15</t>
-  </si>
-  <si>
-    <t>Q) LFFF/QOBCE/IV/M/E/000/006/5022N00143E005</t>
-  </si>
-  <si>
-    <t>5022N00143E</t>
-  </si>
-  <si>
-    <t>5022N00143E005</t>
-  </si>
-  <si>
-    <t>E) OBSTACLE: 10 WIND TURBINES OPR AT TIGNY NOYELLE (62) RDL 128/5,76NM ARP LFAM (BERCK SUR MER) PSN: 502153N 0014239E HEIGHT: 397FT ELEV: 544FT LIGHTING: NIL</t>
-  </si>
-  <si>
-    <t>F0514/16</t>
-  </si>
-  <si>
-    <t>Q) LFFF/QNVAS/IV/BO/AE/000/999/5008N00151E025</t>
-  </si>
-  <si>
-    <t>5008N00151E</t>
-  </si>
-  <si>
-    <t>5008N00151E025</t>
-  </si>
-  <si>
-    <t>E) VOR/DME ABB 108.450MHZ VOR PART U/S : DO NOT USE, POSSIBLE FALSE INDICATIONS</t>
-  </si>
-  <si>
-    <t>A1108/16</t>
-  </si>
-  <si>
-    <t>Q) LFFF/QACXX/V/NBO/AE/000/195/4904N00232E106</t>
-  </si>
-  <si>
-    <t>4904N00232E</t>
-  </si>
-  <si>
-    <t>4904N00232E106</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>E) CONTRARY TO THE INSTRUCTIONS PUBLISHED ON NOVEMBER 13TH 2014 ON PAGES AIP AD 2 LFPG TXT 02 AND AD 3 LFPG TXT 02, AND EXCEPTING PUBLIC MISSION FLIGHTS OF SERA ARTICLE 4, VFR USERS ALLOWED TO FLY IN PARIS CTR AND IN LF-R275 AREA,MUST COMPLY WITH THE FOLLOWING MEASURES. - ALL VFR AIRCRAFT (AIRPLANES AND HELICOPTERS) ARRIVING TO OR DEPARTING FROM PARIS CHARLES DE GAULLE (USING CDG RUNWAYS OR HELISTOP) ARE TEMPORARILY FORBIDDEN IN SPECIAL VFR CONDITIONS. THESE VFR FLIGHTS ARE ALLOWED ONLY IN VMC CONDITIONS WITHIN CLASS D AIRSPACE. - EVERY REQUEST FOR AIR WORK IN VFR (AIRPLANE OR HELICOPTER), WHOSE TRAJECTORY IS LIKELY TO INTERFERE WITH IFR PROCEDURES AT PARIS CHARLES DE GAULLE AND/OR PARIS LE BOURGET, WILL BE POTENTIALLY REFUSED IN SPECIAL VFR CONDITIONS IN PARIS CTR</t>
-  </si>
-  <si>
-    <t>A1109/16</t>
-  </si>
-  <si>
-    <t>E) CONTRARY TO THE INSTRUCTIONS PUBLISHED ON NOVEMBER 13TH 2014 ON PAGES AIP AD 2 LFPG TXT 02 AND AD 3 LFPG TXT 02, VFR USERS ALLOWED TO FLY IN PARIS CTR AND IN LF-R275 AREA, MUST COMPLY WITH THE FOLLOWING PROVISIONS : IN ANY MET CONDITIONS, NO VISUAL SEPARATION CLEARANCE IS TEMPORARILY APPLICABLE BETWEEN IFR FLIGHTS AND A VFR FLYING SOUTH OF RH1 POINT AND NORTH OF RH2 POINT.</t>
-  </si>
-  <si>
-    <t>F0263/16</t>
-  </si>
-  <si>
-    <t>Q) LFXX/QAXTT/IV/BO/E/000/999/4720N00210W250</t>
-  </si>
-  <si>
-    <t>4720N00210W</t>
-  </si>
-  <si>
-    <t>4720N00210W250</t>
-  </si>
-  <si>
-    <t>E) TRIGGER NOTAM - PERM AIRAC AIP AMDT 04/16: CREATION SIGNIFICANT POINTS EBOMO OTGUV ELTEG IBRIG OLMOL ERPOM. SIGNIFICANT POINT BERAD CHANGED</t>
-  </si>
-  <si>
-    <t>F0535/16</t>
-  </si>
-  <si>
-    <t>Q) LFXX/QAFXX/IV/NBO/E/000/999/4504N00053E999</t>
-  </si>
-  <si>
-    <t>4504N00053E</t>
-  </si>
-  <si>
-    <t>4504N00053E999</t>
-  </si>
-  <si>
-    <t>E) ACCORDING TO FRENCH DEPARTMENT OF THE INTERIOR INSTRUCTIONS, AND PURSUANT TO : - ICAO ANNEX 9 STANDARD 3.33, - ARTICLE 26 OF SCHENGEN CONVENTION (1985, JUNE 14TH) - ARTICLE L.625.1 OF 'CODE DE L'ENTREE ET DU SEJOUR DES ETRANGERS ET DU DROIT D'ASILE' CESEDA (FRENCH CODE ABOUT FOREIGNERS ENTRY CONDITIONS AND RIGHT OF ASYLUM), IT IS COMPULSORY FOR AIRLINE CARRIERS SERVING METROPOLITAN FRANCE TO VERIFY EVERY PASSENGER TRAVEL DOCUMENT FOR EVERY INBOUND FLIGHT TO METROPOLITAN FRANCE, COMING FROM INSIDE/OUTSIDE THE SCHENGEN AREA DURING THE FLW PERIOD : 2016, FM 28TH MARCH TO 27TH APRIL. FAILURE TO COMPLY COULD LEAD TO PAY A MAXIMUM 5000 EUROS FINE PER PASSENGER IN ADDITION TO PAYMENT OF THE COSTS OF REMOVAL OF EACH INADMISSABLE TRAVELLER</t>
-  </si>
-  <si>
-    <t>F0620/16</t>
-  </si>
-  <si>
-    <t>Q) LFXX/QCDXX/I/BO/E/000/999/4504N00053E999</t>
-  </si>
-  <si>
-    <t>E) LAUNCH OF THE OPERATIONAL 'IOC' TRIAL (INITIAL OPERATING CAPABILITIES) CPDLC SERVICES IN THE FRENCH CONTINENTAL AIRSPACE FOR WHICH PARIS, REIMS AND MARSEILLE ACC PROVIDE AIR TRAFFIC SERVICES. CURRENTLY, 'IOC' CPDLC IS OPERATIONAL INSIDE THE AIRSPACE FOR WHICH BREST AND BORDEAUX ACC PROVIDE AIR TRAFFIC SERVICES. 'IOC' CPDLC SERVICES WILL BE PROVIDED IN ALL FRENCH CONTINENTAL AIRSPACE. SEE FRENCH AIC 09/16.</t>
-  </si>
-  <si>
-    <t>H1472/16</t>
-  </si>
-  <si>
-    <t>Q) EGXX/QWYLW/IV/M/W/000/065/5504N00500W999</t>
-  </si>
-  <si>
     <t>SFC</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
-    <t>E) PIPELINE INSPECTION NOTIFICATION PROCEDURE SYSTEM (PINS) WILL TAKE PLACE IN THE FOLLOWING LOW FLYING AREAS 1, 4, 5, 6, 7N, 8, 9, 11N, 11S, 12, 14E, 16, THAMES VALLEY AVOIDANCE AREA 16/04/010/LFBC</t>
+    <t>E) PIPELINE INSPECTION NOTIFICATION PROCEDURE SYSTEM (PINS) WILL TAKE PLACE IN THE FOLLOWING LOW FLYING AREAS 1, 4, 5, 6, 7N, 8, 9, 11N, 11S, 12, 14E, 16, THAMES VALLEY AVOIDANCE AREA 16/04/061/LFBC</t>
   </si>
   <si>
     <t>V0017/16</t>
@@ -472,6 +466,33 @@
   </si>
   <si>
     <t>E) AIRSPACE SECURITY WARNINGS ISSUED BY THE DEPARTMENT FOR TRANSPORT IN RESPONSE TO HAZARDOUS SITUATIONS WITHIN THE TERRITORY AND/OR AIRSPACE OF AFGHANISTAN, EGYPT, IRAQ, LIBYA, PAKISTAN, SOMALIA, SOUTH SUDAN, SYRIA, UKRAINE AND YEMEN. ALL OPERATORS ARE TO REFER TO THE TABLE IN UK AIP AT ENR 1.1 SECTION 1.4 FOR FURTHER DETAILS. 15-08-0100/AS6.</t>
+  </si>
+  <si>
+    <t>H1884/16</t>
+  </si>
+  <si>
+    <t>Q) EGTT/QWCLW/IV/M/W/000/005/5159N00011W001</t>
+  </si>
+  <si>
+    <t>5159N00011W</t>
+  </si>
+  <si>
+    <t>5159N00011W001</t>
+  </si>
+  <si>
+    <t>E) UNMANNED CAPTIVE BALLOON IN LOW FLYING AREA 6 WI 1NM RADIUS OF PSN 515853N 0001108W (BALDOCK, HERTFORDSHIRE) MAX HEIGHT 200FT AGL. 16/04/062/OPSLF</t>
+  </si>
+  <si>
+    <t>H1860/16</t>
+  </si>
+  <si>
+    <t>Q) EGTT/QWELW/IV/BO/W/000/330/5119N00228W264</t>
+  </si>
+  <si>
+    <t>5119N00228W264</t>
+  </si>
+  <si>
+    <t>E) MET RESEARCH FLT. BAE146 ACFT CALLSIGN METMAN OPR WI AREAS ALPHA AND DELTA (SEE UK AIP ENR 6.1.10.5). ACFT MAY NOT BE ABLE TO FLY SEMI-CIRCULAR FL. ACTIVITY MAINLY UNDER SWANWICK (MIL) CTL. SONDES WILL NOT BE DROPPED. ALL OPS SUBJ PRIOR ATC CLR. RTE AVBL FM 0600HR ON DAY OF FLT AT WWW.FAAM.AC.UK. 16-04-0393/AS2</t>
   </si>
 </sst>
 </file>
@@ -948,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:T1"/>
@@ -1083,7 +1104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="36">
+    <row r="4" spans="1:20" ht="96">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1109,36 +1130,36 @@
         <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>37422.550694444442</v>
-      </c>
-      <c r="J4" s="5" t="s">
+        <v>38792.25</v>
+      </c>
+      <c r="J4" s="7">
+        <v>38884.25</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="R4" s="5">
         <v>0</v>
       </c>
       <c r="S4" s="5">
-        <v>9</v>
+        <v>999</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="36">
@@ -1164,42 +1185,42 @@
         <v>22</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="7">
+        <v>36997.291666666664</v>
+      </c>
+      <c r="J5" s="7">
+        <v>11125.791666666666</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="7">
-        <v>46858.517361111109</v>
-      </c>
-      <c r="J5" s="7">
-        <v>37027.999305555553</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R5" s="5">
         <v>0</v>
       </c>
       <c r="S5" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T5" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="36">
+    <row r="6" spans="1:20" ht="72">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1225,10 +1246,10 @@
         <v>37</v>
       </c>
       <c r="I6" s="7">
-        <v>47134.388888888891</v>
+        <v>39888.325694444444</v>
       </c>
       <c r="J6" s="7">
-        <v>11520.999305555555</v>
+        <v>37058.999305555553</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>38</v>
@@ -1242,22 +1263,22 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="R6" s="5">
         <v>0</v>
       </c>
       <c r="S6" s="5">
-        <v>999</v>
+        <v>5</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="84">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="24">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1280,42 +1301,42 @@
         <v>22</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="7">
+        <v>37331.298611111109</v>
+      </c>
+      <c r="J7" s="7">
+        <v>37423.298611111109</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="7">
-        <v>46462.291666666664</v>
-      </c>
-      <c r="J7" s="7">
-        <v>11064.999305555555</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="M7" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="R7" s="5">
         <v>0</v>
       </c>
       <c r="S7" s="5">
-        <v>999</v>
+        <v>105</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="60">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="36">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1338,39 +1359,39 @@
         <v>22</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" s="7">
-        <v>38458.672222222223</v>
-      </c>
-      <c r="J8" s="7">
-        <v>11125.999305555555</v>
+        <v>37422.550694444442</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="R8" s="5">
         <v>0</v>
       </c>
       <c r="S8" s="5">
-        <v>999</v>
+        <v>9</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="36">
@@ -1396,42 +1417,42 @@
         <v>22</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I9" s="7">
-        <v>39919.4375</v>
+        <v>46858.517361111109</v>
       </c>
       <c r="J9" s="7">
-        <v>40649.458333333336</v>
+        <v>37027.999305555553</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="R9" s="5">
         <v>0</v>
       </c>
       <c r="S9" s="5">
-        <v>999</v>
+        <v>2</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="120">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="36">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1454,30 +1475,30 @@
         <v>22</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I10" s="7">
-        <v>39098.638194444444</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>25</v>
+        <v>47134.388888888891</v>
+      </c>
+      <c r="J10" s="7">
+        <v>11520.999305555555</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="R10" s="5">
         <v>0</v>
@@ -1486,10 +1507,10 @@
         <v>999</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="48">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="84">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1512,30 +1533,30 @@
         <v>22</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I11" s="7">
-        <v>40284.959027777775</v>
+        <v>46462.291666666664</v>
       </c>
       <c r="J11" s="7">
-        <v>44667.957638888889</v>
+        <v>11064.999305555555</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="R11" s="5">
         <v>0</v>
@@ -1544,10 +1565,10 @@
         <v>999</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="48">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="60">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1570,30 +1591,30 @@
         <v>22</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="7">
+        <v>38458.672222222223</v>
+      </c>
+      <c r="J12" s="7">
+        <v>11125.999305555555</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="I12" s="7">
-        <v>40284.959027777775</v>
-      </c>
-      <c r="J12" s="7">
-        <v>44667.957638888889</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="R12" s="5">
         <v>0</v>
@@ -1602,10 +1623,10 @@
         <v>999</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="24">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -1628,42 +1649,22 @@
         <v>22</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="7">
-        <v>45001.341666666667</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R13" s="5">
-        <v>0</v>
-      </c>
-      <c r="S13" s="5">
-        <v>999</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="252">
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -1686,42 +1687,22 @@
         <v>22</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="7">
-        <v>38033.000694444447</v>
-      </c>
-      <c r="J14" s="7">
-        <v>46859.999305555553</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>71</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R14" s="5">
-        <v>0</v>
-      </c>
-      <c r="S14" s="5">
-        <v>999</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="252">
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -1744,42 +1725,22 @@
         <v>22</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="7">
-        <v>39098.717361111114</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>76</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R15" s="5">
-        <v>0</v>
-      </c>
-      <c r="S15" s="5">
-        <v>999</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="36">
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="1:20" ht="24">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -1802,30 +1763,30 @@
         <v>22</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I16" s="7">
-        <v>11398</v>
-      </c>
-      <c r="J16" s="7">
-        <v>41745.999305555553</v>
+        <v>45001.341666666667</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="R16" s="5">
         <v>0</v>
@@ -1834,10 +1795,10 @@
         <v>999</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="180">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="252">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1860,30 +1821,30 @@
         <v>22</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I17" s="7">
-        <v>37696.479166666664</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>25</v>
+        <v>38033.000694444447</v>
+      </c>
+      <c r="J17" s="7">
+        <v>46859.999305555553</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="R17" s="5">
         <v>0</v>
@@ -1892,10 +1853,10 @@
         <v>999</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="60">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="252">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -1918,30 +1879,30 @@
         <v>22</v>
       </c>
       <c r="H18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="7">
+        <v>39098.717361111114</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="I18" s="7">
-        <v>46828.497916666667</v>
-      </c>
-      <c r="J18" s="7">
-        <v>46189.5</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="R18" s="5">
         <v>0</v>
@@ -1953,7 +1914,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="60">
+    <row r="19" spans="1:20" ht="180">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1979,27 +1940,27 @@
         <v>85</v>
       </c>
       <c r="I19" s="7">
-        <v>46069.652083333334</v>
+        <v>37696.479166666664</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="R19" s="5">
         <v>0</v>
@@ -2008,7 +1969,7 @@
         <v>999</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="60">
@@ -2034,42 +1995,42 @@
         <v>22</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I20" s="7">
-        <v>11398.844444444445</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>25</v>
+        <v>46828.497916666667</v>
+      </c>
+      <c r="J20" s="7">
+        <v>46189.5</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="R20" s="5">
         <v>0</v>
       </c>
       <c r="S20" s="5">
-        <v>25</v>
+        <v>999</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="48">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="60">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -2092,42 +2053,42 @@
         <v>22</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I21" s="7">
-        <v>41655.418055555558</v>
-      </c>
-      <c r="J21" s="7">
-        <v>41380.999305555553</v>
+        <v>46069.652083333334</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="R21" s="5">
         <v>0</v>
       </c>
       <c r="S21" s="5">
-        <v>3</v>
+        <v>999</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="36">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="60">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -2150,42 +2111,42 @@
         <v>22</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I22" s="7">
-        <v>11033.340972222222</v>
-      </c>
-      <c r="J22" s="7">
-        <v>11064.729166666666</v>
+        <v>11398.844444444445</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R22" s="5">
         <v>0</v>
       </c>
       <c r="S22" s="5">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="72">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="36">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -2208,42 +2169,42 @@
         <v>22</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I23" s="7">
-        <v>47193.25</v>
+        <v>11033.340972222222</v>
       </c>
       <c r="J23" s="7">
-        <v>11064.791666666666</v>
+        <v>11064.729166666666</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="R23" s="5">
         <v>0</v>
       </c>
       <c r="S23" s="5">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="36">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -2266,22 +2227,42 @@
         <v>22</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="I24" s="7">
+        <v>45763.3125</v>
+      </c>
+      <c r="J24" s="7">
+        <v>46128.708333333336</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="P24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0</v>
+      </c>
+      <c r="S24" s="5">
+        <v>6</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="72">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2304,22 +2285,42 @@
         <v>22</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="I25" s="7">
+        <v>47193.25</v>
+      </c>
+      <c r="J25" s="7">
+        <v>11064.791666666666</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-    </row>
-    <row r="26" spans="1:20" ht="48">
+      <c r="P25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R25" s="5">
+        <v>0</v>
+      </c>
+      <c r="S25" s="5">
+        <v>100</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -2342,42 +2343,22 @@
         <v>22</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" s="7">
-        <v>40405</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>113</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R26" s="5">
-        <v>0</v>
-      </c>
-      <c r="S26" s="5">
-        <v>6</v>
-      </c>
-      <c r="T26" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="24">
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -2400,42 +2381,22 @@
         <v>22</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I27" s="7">
-        <v>44271.650694444441</v>
-      </c>
-      <c r="J27" s="7">
-        <v>11064.708333333334</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>118</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R27" s="5">
-        <v>0</v>
-      </c>
-      <c r="S27" s="5">
-        <v>999</v>
-      </c>
-      <c r="T27" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="240">
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="1:20" ht="48">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -2458,42 +2419,42 @@
         <v>22</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I28" s="7">
-        <v>47193.488888888889</v>
-      </c>
-      <c r="J28" s="7">
-        <v>46281.999305555553</v>
+        <v>40405</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="R28" s="5">
         <v>0</v>
       </c>
       <c r="S28" s="5">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="120">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="24">
       <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
@@ -2516,42 +2477,42 @@
         <v>22</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I29" s="7">
-        <v>47193.490277777775</v>
+        <v>44271.650694444441</v>
       </c>
       <c r="J29" s="7">
-        <v>46281.999305555553</v>
+        <v>11064.708333333334</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R29" s="5">
         <v>0</v>
       </c>
       <c r="S29" s="5">
-        <v>195</v>
+        <v>999</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="48">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="240">
       <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
@@ -2574,42 +2535,42 @@
         <v>22</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I30" s="7">
-        <v>11398</v>
+        <v>47193.488888888889</v>
       </c>
       <c r="J30" s="7">
-        <v>41380.999305555553</v>
+        <v>46281.999305555553</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="R30" s="5">
         <v>0</v>
       </c>
       <c r="S30" s="5">
-        <v>999</v>
+        <v>195</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="228">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="120">
       <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
@@ -2632,42 +2593,42 @@
         <v>22</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I31" s="7">
-        <v>46828</v>
+        <v>47193.490277777775</v>
       </c>
       <c r="J31" s="7">
-        <v>46493.999305555553</v>
+        <v>46281.999305555553</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="R31" s="5">
         <v>0</v>
       </c>
       <c r="S31" s="5">
-        <v>999</v>
+        <v>195</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="120">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="60">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
@@ -2690,30 +2651,30 @@
         <v>22</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I32" s="7">
-        <v>38823.306250000001</v>
+        <v>45763</v>
       </c>
       <c r="J32" s="7">
-        <v>40649.625</v>
+        <v>47224.999305555553</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="R32" s="5">
         <v>0</v>
@@ -2722,10 +2683,10 @@
         <v>999</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="60">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="228">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
@@ -2748,46 +2709,42 @@
         <v>22</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I33" s="7">
-        <v>40649.291666666664</v>
+        <v>46128.506249999999</v>
       </c>
       <c r="J33" s="7">
-        <v>40649.666666666664</v>
+        <v>46158.999305555553</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="O33" s="5">
-        <v>2000</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
       <c r="P33" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="R33" s="5">
         <v>0</v>
       </c>
       <c r="S33" s="5">
-        <v>65</v>
+        <v>999</v>
       </c>
       <c r="T33" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="192">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="60">
       <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
@@ -2810,44 +2767,46 @@
         <v>22</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="I34" s="7">
-        <v>36966.000694444447</v>
+        <v>46128.291666666664</v>
       </c>
       <c r="J34" s="7">
-        <v>46158.999305555553</v>
+        <v>46128.666666666664</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="O34" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="O34" s="5">
+        <v>2000</v>
+      </c>
       <c r="P34" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R34" s="5">
         <v>0</v>
       </c>
       <c r="S34" s="5">
-        <v>999</v>
+        <v>65</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="108">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="192">
       <c r="A35" s="3" t="s">
         <v>21</v>
       </c>
@@ -2870,32 +2829,32 @@
         <v>22</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I35" s="7">
-        <v>36997.40625</v>
+        <v>36966.000694444447</v>
       </c>
       <c r="J35" s="7">
-        <v>46920.999305555553</v>
+        <v>46158.999305555553</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R35" s="5">
         <v>0</v>
@@ -2904,7 +2863,185 @@
         <v>999</v>
       </c>
       <c r="T35" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="108">
+      <c r="A36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="5">
+        <v>33</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="5">
+        <v>33</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I36" s="7">
+        <v>36997.40625</v>
+      </c>
+      <c r="J36" s="7">
+        <v>46920.999305555553</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="R36" s="5">
+        <v>0</v>
+      </c>
+      <c r="S36" s="5">
+        <v>999</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="48">
+      <c r="A37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="5">
+        <v>34</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="5">
+        <v>34</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I37" s="7">
+        <v>46128.322916666664</v>
+      </c>
+      <c r="J37" s="7">
+        <v>45854.854166666664</v>
+      </c>
+      <c r="K37" s="5" t="s">
         <v>150</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="R37" s="5">
+        <v>0</v>
+      </c>
+      <c r="S37" s="5">
+        <v>5</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="96">
+      <c r="A38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="5">
+        <v>35</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="5">
+        <v>35</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I38" s="7">
+        <v>46128.458333333336</v>
+      </c>
+      <c r="J38" s="7">
+        <v>46128.708333333336</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="R38" s="5">
+        <v>0</v>
+      </c>
+      <c r="S38" s="5">
+        <v>330</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2946,6 +3083,9 @@
     <hyperlink ref="G33" r:id="rId30"/>
     <hyperlink ref="G34" r:id="rId31"/>
     <hyperlink ref="G35" r:id="rId32"/>
+    <hyperlink ref="G36" r:id="rId33"/>
+    <hyperlink ref="G37" r:id="rId34"/>
+    <hyperlink ref="G38" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
